--- a/biology/Zoologie/Acrophylla/Acrophylla.xlsx
+++ b/biology/Zoologie/Acrophylla/Acrophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrophylla est un genre d'insectes phasmoptères de la famille des Phasmatidae, de la sous-famille des Phasmatinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon  Species File              (22 août 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon  Species File              (22 août 2011) :
 Acrophylla caesarea (Redtenbacher, 1908)
 Acrophylla caprella (Westwood, 1859)
 Acrophylla enceladus Gray, 1835
@@ -523,11 +537,11 @@
 Acrophylla thoon (Stål, 1877)
 Acrophylla titan (Macleay, 1826)
 Acrophylla wuelfingi (Redtenbacher, 1908)
-Selon NCBI  (22 août 2011)[2] :
+Selon NCBI  (22 août 2011) :
 Acrophylla thoon
 Acrophylla titan
 Acrophylla wuelfingi
-Selon BioLib                    (26 déc. 2014)[3] :
+Selon BioLib                    (26 déc. 2014) :
 Acrophylla cornuta (Tepper, 1905)
 Acrophylla ligula (Redtenbacher, 1908)
 Acrophylla nubilosa Tepper, 1905
